--- a/DB2.xlsx
+++ b/DB2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avdsafac\Desktop\Matheus Andrade\Estudos\TADS\2. Semestre\Estatistica Aplicada\Trabalho Matheus e Gabriel\DBwithPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9924CFB0-AA14-460C-A49C-803FD03CE8CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0000EACB-644B-40E4-B69D-4D3EE89893C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,9 +515,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -876,775 +887,777 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>45052</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>6.18</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>22.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>45054</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>6.09</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>19.899999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>45058</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>6.36</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>25.2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>45064</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>6.33</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>19.600000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>45070</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>6.65</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>22.9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>45074</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>6.44</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>24.3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>45076</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>6.16</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>27.7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>45082</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>6.18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>23.4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>45086</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>6.49</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>20.9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>45087</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>6.35</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>21.1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>45088</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>6.39</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>21.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>45090</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>6.3</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>24.3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>45097</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>6.1</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>22.1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>45098</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>6.09</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>22.4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>45099</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>6.17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>24.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>45100</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>6.1</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>24.2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>45101</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>6.18</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>23.4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>45102</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>6.2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>22.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>45104</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>6.3</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>21.7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>45105</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>6.39</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>20.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>45107</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>6.68</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>21.9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="4">
         <v>45108</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>6.22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>22.5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="4">
         <v>45110</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>6.2</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>21.7</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="4">
         <v>45111</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>6.31</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="4">
         <v>45112</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>6.38</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>20.9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="4">
         <v>45113</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>6.35</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="4">
         <v>45114</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>6.22</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>20.399999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="4">
         <v>45115</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>6.42</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="4">
         <v>45116</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>6.29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>20.100000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="4">
         <v>45117</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>6.08</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="4">
         <v>45118</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>6.42</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>22.1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="4">
         <v>45119</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>6.26</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>21.9</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="4">
         <v>45120</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>6.46</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>21.9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="4">
         <v>45121</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>6.24</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="4">
         <v>45122</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>6.19</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>22.7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="4">
         <v>45123</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>6.27</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>21.7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="4">
         <v>45124</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>6.42</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>18.100000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="4">
         <v>45127</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>6.28</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>20.9</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="4">
         <v>45129</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>6.36</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>21.3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="4">
         <v>45130</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>6.14</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>21.2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="4">
         <v>45131</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>6.25</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>21.1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="4">
         <v>45132</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>6.24</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>21.2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="4">
         <v>45133</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>6.3</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>23.7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="4">
         <v>45134</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>6.37</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>21.8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="4">
         <v>45136</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>6.12</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>22.6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="4">
         <v>45138</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>6.22</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="4">
         <v>45139</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>6.24</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>24.7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="4">
         <v>45140</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>6.4</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>21.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="4">
         <v>45141</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>6.22</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>21.9</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="4">
         <v>45142</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>6.22</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>23.6</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="4">
         <v>45143</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>6.46</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="4">
         <v>45148</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>6.34</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>26.4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="4">
         <v>45150</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>6.28</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>47.2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="4">
         <v>45151</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>6.16</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>39.4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="4">
         <v>45152</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>6.22</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>37.4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="A57" s="4">
         <v>45153</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>5.88</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>31.7</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="A58" s="4">
         <v>45154</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>6.07</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>37.799999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="4">
         <v>45155</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>6.17</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>49.9</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="4">
         <v>45156</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>6.22</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>46.4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="4">
         <v>45157</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>6.37</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>42.2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="4">
         <v>45161</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>6.06</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>46.22</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="A63" s="4">
         <v>45162</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>6.05</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>38.1</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="4">
         <v>45163</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>5.92</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>35.9</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="A65" s="4">
         <v>45164</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>6.28</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>36.9</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="A66" s="4">
         <v>45166</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>5.85</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>32.6</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+      <c r="A67" s="4">
         <v>45167</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>6.24</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+      <c r="A68" s="4">
         <v>45168</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>6.18</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>24.7</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+      <c r="A69" s="4">
         <v>45169</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>6.03</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>24.4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C69" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>